--- a/data/trans_orig/P04C05_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47568B9F-FC45-4515-9E50-7401D7A429C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A6B67C6-03D3-4C45-BAC5-1BE1EDE0F12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{688C4FAE-233F-4650-ABA3-6B3E9D975C39}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{855FF49A-41EF-4231-B653-A832C8A68454}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3318197F-A002-4F1B-9284-0FB0AABA6000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B7B613-FE76-4631-92E2-71974C21B881}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P04C05_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A6B67C6-03D3-4C45-BAC5-1BE1EDE0F12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC83914-CDC7-485F-B173-911A9B30C58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{855FF49A-41EF-4231-B653-A832C8A68454}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D198483A-10BA-4C3F-B00D-20E19617A8E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="201">
-  <si>
-    <t>Hogares con refrigeración por aire acondicionado mediante aparatos fijos en 2023 (Tasa respuesta: 99,87%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="200">
+  <si>
+    <t>Población con refrigeración por aire acondicionado mediante aparatos fijos en la vivienda en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>23,42%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
@@ -104,10 +104,10 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -116,7 +116,7 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,11%</t>
   </si>
   <si>
     <t>0,56%</t>
@@ -125,7 +125,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>Si, funciona correctamente</t>
@@ -134,28 +134,28 @@
     <t>75,96%</t>
   </si>
   <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>75,47%</t>
   </si>
   <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,37 +167,34 @@
     <t>18,57%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>22,1%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -206,43 +203,43 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>74,49%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>77,09%</t>
   </si>
   <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -251,34 +248,34 @@
     <t>22,36%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>23,11%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,27%</t>
+    <t>0,25%</t>
   </si>
   <si>
     <t>2,24%</t>
@@ -287,43 +284,43 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,37%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>76,71%</t>
   </si>
   <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>72,36%</t>
   </si>
   <si>
     <t>76,0%</t>
   </si>
   <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -332,25 +329,25 @@
     <t>21,31%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>2,16%</t>
@@ -359,52 +356,49 @@
     <t>1,18%</t>
   </si>
   <si>
-    <t>3,62%</t>
+    <t>3,64%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
   </si>
   <si>
     <t>76,24%</t>
   </si>
   <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -413,28 +407,28 @@
     <t>25,83%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>25,57%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -443,52 +437,52 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,14%</t>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>73,27%</t>
   </si>
   <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>73,15%</t>
   </si>
   <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>73,21%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -497,145 +491,148 @@
     <t>27,08%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
   </si>
   <si>
     <t>28,98%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,15%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>1,08%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>73,57%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1050,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B7B613-FE76-4631-92E2-71974C21B881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0459B2-155D-4DD3-8AA3-DB44CE1A75D1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1437,7 +1434,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1446,13 +1443,13 @@
         <v>1902</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -1461,13 +1458,13 @@
         <v>7470</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1482,13 +1479,13 @@
         <v>343270</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>348</v>
@@ -1497,13 +1494,13 @@
         <v>370989</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>587</v>
@@ -1512,13 +1509,13 @@
         <v>714258</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1574,7 +1571,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1586,13 +1583,13 @@
         <v>124355</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>216</v>
@@ -1601,13 +1598,13 @@
         <v>144743</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>354</v>
@@ -1616,13 +1613,13 @@
         <v>269098</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1637,13 +1634,13 @@
         <v>5163</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1652,13 +1649,13 @@
         <v>5194</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1709,7 +1706,7 @@
         <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>1021</v>
@@ -1718,13 +1715,13 @@
         <v>885029</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,7 +1777,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1792,13 +1789,13 @@
         <v>154263</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>255</v>
@@ -1807,13 +1804,13 @@
         <v>170804</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>410</v>
@@ -1825,10 +1822,10 @@
         <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,13 +1840,13 @@
         <v>15637</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -1858,13 +1855,13 @@
         <v>6559</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -1873,13 +1870,13 @@
         <v>22196</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,13 +1891,13 @@
         <v>554090</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>873</v>
@@ -1909,13 +1906,13 @@
         <v>569211</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>1368</v>
@@ -1924,13 +1921,13 @@
         <v>1123301</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,7 +1983,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1998,13 +1995,13 @@
         <v>154764</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -2013,13 +2010,13 @@
         <v>152132</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>425</v>
@@ -2028,13 +2025,13 @@
         <v>306896</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2046,13 @@
         <v>5402</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -2064,13 +2061,13 @@
         <v>7640</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -2079,13 +2076,13 @@
         <v>13042</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2097,13 @@
         <v>438965</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>726</v>
@@ -2115,13 +2112,13 @@
         <v>435260</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>1215</v>
@@ -2130,13 +2127,13 @@
         <v>874225</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,7 +2189,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2201,16 +2198,16 @@
         <v>263</v>
       </c>
       <c r="D24" s="7">
-        <v>188951</v>
+        <v>188950</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>563</v>
@@ -2219,13 +2216,13 @@
         <v>297497</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>826</v>
@@ -2234,13 +2231,13 @@
         <v>486448</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2252,13 @@
         <v>8960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -2270,13 +2267,13 @@
         <v>11640</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -2285,10 +2282,10 @@
         <v>20600</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>166</v>
@@ -2303,7 +2300,7 @@
         <v>752</v>
       </c>
       <c r="D26" s="7">
-        <v>499844</v>
+        <v>499843</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>167</v>
@@ -2354,7 +2351,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2416,7 +2413,7 @@
         <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="H28" s="7">
         <v>1454</v>
@@ -2425,13 +2422,13 @@
         <v>977485</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>2271</v>
@@ -2440,13 +2437,13 @@
         <v>1767825</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2458,13 @@
         <v>43079</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -2476,13 +2473,13 @@
         <v>34711</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>114</v>
@@ -2491,13 +2488,13 @@
         <v>77790</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,10 +2512,10 @@
         <v>90</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>3841</v>
@@ -2527,13 +2524,13 @@
         <v>2817515</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>6347</v>
@@ -2542,13 +2539,13 @@
         <v>5367092</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2601,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04C05_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AC83914-CDC7-485F-B173-911A9B30C58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEBDE44A-A851-4356-8CA7-D7FC5A67C380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D198483A-10BA-4C3F-B00D-20E19617A8E3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E5D8CC1F-BBB3-495F-91D4-625199895E71}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="231">
   <si>
     <t>Población con refrigeración por aire acondicionado mediante aparatos fijos en la vivienda en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
@@ -65,574 +65,667 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>0,5%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>Si, funciona correctamente</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>Si, funciona correctamente</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>73,09%</t>
   </si>
   <si>
-    <t>75,91%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1047,8 +1140,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0459B2-155D-4DD3-8AA3-DB44CE1A75D1}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B7367D-9904-4333-8AB2-80E675470611}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1168,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>88448</v>
+        <v>96714</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1183,7 +1276,7 @@
         <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>87131</v>
+        <v>84187</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1198,7 +1291,7 @@
         <v>91</v>
       </c>
       <c r="N4" s="7">
-        <v>175578</v>
+        <v>180901</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1219,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>2348</v>
+        <v>1989</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1234,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>1776</v>
+        <v>1502</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1249,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>4124</v>
+        <v>3491</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1270,7 +1363,7 @@
         <v>130</v>
       </c>
       <c r="D6" s="7">
-        <v>286883</v>
+        <v>301284</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1285,7 +1378,7 @@
         <v>153</v>
       </c>
       <c r="I6" s="7">
-        <v>266050</v>
+        <v>227511</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1300,7 +1393,7 @@
         <v>283</v>
       </c>
       <c r="N6" s="7">
-        <v>552934</v>
+        <v>528795</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1321,7 +1414,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1336,7 +1429,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1351,7 +1444,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1374,7 +1467,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="7">
-        <v>79558</v>
+        <v>83467</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1389,7 +1482,7 @@
         <v>109</v>
       </c>
       <c r="I8" s="7">
-        <v>125179</v>
+        <v>172146</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1404,7 +1497,7 @@
         <v>165</v>
       </c>
       <c r="N8" s="7">
-        <v>204738</v>
+        <v>255614</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1425,7 +1518,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>5568</v>
+        <v>5587</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1434,37 +1527,37 @@
         <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1902</v>
+        <v>1761</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
       </c>
       <c r="N9" s="7">
-        <v>7470</v>
+        <v>7348</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1476,46 +1569,46 @@
         <v>239</v>
       </c>
       <c r="D10" s="7">
-        <v>343270</v>
+        <v>334493</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>348</v>
       </c>
       <c r="I10" s="7">
-        <v>370989</v>
+        <v>337061</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>587</v>
       </c>
       <c r="N10" s="7">
-        <v>714258</v>
+        <v>671554</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,7 +1620,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1542,7 +1635,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498070</v>
+        <v>510969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1557,7 +1650,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>926466</v>
+        <v>934516</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1571,7 +1664,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1580,46 +1673,46 @@
         <v>138</v>
       </c>
       <c r="D12" s="7">
-        <v>124355</v>
+        <v>122833</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>216</v>
       </c>
       <c r="I12" s="7">
-        <v>144743</v>
+        <v>136268</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>354</v>
       </c>
       <c r="N12" s="7">
-        <v>269098</v>
+        <v>259101</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,28 +1724,28 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>5163</v>
+        <v>4905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>5194</v>
+        <v>4910</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>83</v>
@@ -1661,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>10357</v>
+        <v>9815</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>84</v>
@@ -1682,7 +1775,7 @@
         <v>401</v>
       </c>
       <c r="D14" s="7">
-        <v>426524</v>
+        <v>407416</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1697,7 +1790,7 @@
         <v>620</v>
       </c>
       <c r="I14" s="7">
-        <v>458505</v>
+        <v>448940</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -1706,22 +1799,22 @@
         <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>1021</v>
       </c>
       <c r="N14" s="7">
-        <v>885029</v>
+        <v>856356</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,7 +1826,7 @@
         <v>544</v>
       </c>
       <c r="D15" s="7">
-        <v>556043</v>
+        <v>535154</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1748,7 +1841,7 @@
         <v>845</v>
       </c>
       <c r="I15" s="7">
-        <v>608442</v>
+        <v>590118</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1763,7 +1856,7 @@
         <v>1389</v>
       </c>
       <c r="N15" s="7">
-        <v>1164484</v>
+        <v>1125272</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1777,7 +1870,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1786,46 +1879,46 @@
         <v>155</v>
       </c>
       <c r="D16" s="7">
-        <v>154263</v>
+        <v>149518</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>255</v>
       </c>
       <c r="I16" s="7">
-        <v>170804</v>
+        <v>158701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>410</v>
       </c>
       <c r="N16" s="7">
-        <v>325067</v>
+        <v>308219</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,46 +1930,46 @@
         <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>15637</v>
+        <v>14636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>6559</v>
+        <v>6060</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
       </c>
       <c r="N17" s="7">
-        <v>22196</v>
+        <v>20696</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,46 +1981,46 @@
         <v>495</v>
       </c>
       <c r="D18" s="7">
-        <v>554090</v>
+        <v>723632</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>873</v>
       </c>
       <c r="I18" s="7">
-        <v>569211</v>
+        <v>547463</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>1368</v>
       </c>
       <c r="N18" s="7">
-        <v>1123301</v>
+        <v>1271096</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,7 +2032,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1954,7 +2047,7 @@
         <v>1140</v>
       </c>
       <c r="I19" s="7">
-        <v>746574</v>
+        <v>712224</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1969,7 +2062,7 @@
         <v>1805</v>
       </c>
       <c r="N19" s="7">
-        <v>1470564</v>
+        <v>1600011</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1983,7 +2076,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1992,46 +2085,46 @@
         <v>165</v>
       </c>
       <c r="D20" s="7">
-        <v>154764</v>
+        <v>148199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
       </c>
       <c r="I20" s="7">
-        <v>152132</v>
+        <v>141500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>425</v>
       </c>
       <c r="N20" s="7">
-        <v>306896</v>
+        <v>289699</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,46 +2136,46 @@
         <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>5402</v>
+        <v>4991</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
       </c>
       <c r="I21" s="7">
-        <v>7640</v>
+        <v>7084</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
       </c>
       <c r="N21" s="7">
-        <v>13042</v>
+        <v>12076</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,46 +2187,46 @@
         <v>489</v>
       </c>
       <c r="D22" s="7">
-        <v>438965</v>
+        <v>407069</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>726</v>
       </c>
       <c r="I22" s="7">
-        <v>435260</v>
+        <v>397457</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>1215</v>
       </c>
       <c r="N22" s="7">
-        <v>874225</v>
+        <v>804526</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,7 +2238,7 @@
         <v>662</v>
       </c>
       <c r="D23" s="7">
-        <v>599132</v>
+        <v>560260</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2160,7 +2253,7 @@
         <v>999</v>
       </c>
       <c r="I23" s="7">
-        <v>595032</v>
+        <v>546041</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2175,7 +2268,7 @@
         <v>1661</v>
       </c>
       <c r="N23" s="7">
-        <v>1194164</v>
+        <v>1106301</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2189,55 +2282,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>263</v>
+        <v>141</v>
       </c>
       <c r="D24" s="7">
-        <v>188950</v>
+        <v>95991</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
-        <v>563</v>
+        <v>249</v>
       </c>
       <c r="I24" s="7">
-        <v>297497</v>
+        <v>121135</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
-        <v>826</v>
+        <v>390</v>
       </c>
       <c r="N24" s="7">
-        <v>486448</v>
+        <v>217126</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,49 +2339,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>8960</v>
+        <v>4488</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>11640</v>
+        <v>5147</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>20600</v>
+        <v>9635</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,49 +2390,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>752</v>
+        <v>422</v>
       </c>
       <c r="D26" s="7">
-        <v>499843</v>
+        <v>267687</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
-        <v>1121</v>
+        <v>567</v>
       </c>
       <c r="I26" s="7">
-        <v>717500</v>
+        <v>482086</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
-        <v>1873</v>
+        <v>989</v>
       </c>
       <c r="N26" s="7">
-        <v>1217344</v>
+        <v>749772</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,10 +2441,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2363,10 +2456,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2378,10 +2471,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N27" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2395,55 +2488,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>817</v>
+        <v>122</v>
       </c>
       <c r="D28" s="7">
-        <v>790339</v>
+        <v>82665</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
-        <v>1454</v>
+        <v>314</v>
       </c>
       <c r="I28" s="7">
-        <v>977485</v>
+        <v>151726</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
-        <v>2271</v>
+        <v>436</v>
       </c>
       <c r="N28" s="7">
-        <v>1767825</v>
+        <v>234391</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,49 +2545,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>43079</v>
+        <v>3790</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="I29" s="7">
-        <v>34711</v>
+        <v>5467</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="N29" s="7">
-        <v>77790</v>
+        <v>9257</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,49 +2596,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>2506</v>
+        <v>330</v>
       </c>
       <c r="D30" s="7">
-        <v>2549576</v>
+        <v>196303</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
-        <v>3841</v>
+        <v>554</v>
       </c>
       <c r="I30" s="7">
-        <v>2817515</v>
+        <v>268638</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
-        <v>6347</v>
+        <v>884</v>
       </c>
       <c r="N30" s="7">
-        <v>5367092</v>
+        <v>464941</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,63 +2647,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>817</v>
+      </c>
+      <c r="D32" s="7">
+        <v>779388</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1454</v>
+      </c>
+      <c r="I32" s="7">
+        <v>965663</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2271</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1745051</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7">
+        <v>40386</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="7">
+        <v>64</v>
+      </c>
+      <c r="I33" s="7">
+        <v>31932</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" s="7">
+        <v>114</v>
+      </c>
+      <c r="N33" s="7">
+        <v>72318</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2506</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2637885</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3841</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2709156</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6347</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5347041</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3373</v>
       </c>
-      <c r="D31" s="7">
-        <v>3382994</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3457659</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5359</v>
       </c>
-      <c r="I31" s="7">
-        <v>3829711</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3706751</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8732</v>
       </c>
-      <c r="N31" s="7">
-        <v>7212706</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>199</v>
+      <c r="N35" s="7">
+        <v>7164410</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
